--- a/SchedulingData/dynamic10/pso/scheduling2_8.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_8.xlsx
@@ -462,45 +462,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>203.8</v>
+        <v>222.36</v>
       </c>
       <c r="D2" t="n">
-        <v>262.22</v>
+        <v>314.96</v>
       </c>
       <c r="E2" t="n">
-        <v>14.788</v>
+        <v>11.164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>205</v>
+        <v>314.96</v>
       </c>
       <c r="D3" t="n">
-        <v>242.7</v>
+        <v>355.64</v>
       </c>
       <c r="E3" t="n">
-        <v>14.4</v>
+        <v>8.715999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -508,89 +508,89 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>214.06</v>
+        <v>225.8</v>
       </c>
       <c r="D4" t="n">
-        <v>293.96</v>
+        <v>266.4</v>
       </c>
       <c r="E4" t="n">
-        <v>13.224</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>228.1</v>
+        <v>266.4</v>
       </c>
       <c r="D5" t="n">
-        <v>297.9</v>
+        <v>331.84</v>
       </c>
       <c r="E5" t="n">
-        <v>13.84</v>
+        <v>12.056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>239.12</v>
+        <v>209.2</v>
       </c>
       <c r="D6" t="n">
-        <v>304.08</v>
+        <v>276.32</v>
       </c>
       <c r="E6" t="n">
-        <v>13.232</v>
+        <v>14.508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>304.08</v>
+        <v>276.32</v>
       </c>
       <c r="D7" t="n">
-        <v>346.2</v>
+        <v>335.52</v>
       </c>
       <c r="E7" t="n">
-        <v>10.64</v>
+        <v>11.208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>262.22</v>
+        <v>331.84</v>
       </c>
       <c r="D8" t="n">
-        <v>301.62</v>
+        <v>369.34</v>
       </c>
       <c r="E8" t="n">
-        <v>11.988</v>
+        <v>9.936</v>
       </c>
     </row>
     <row r="9">
@@ -599,378 +599,378 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>301.62</v>
+        <v>218.24</v>
       </c>
       <c r="D9" t="n">
-        <v>347.4</v>
+        <v>270.9</v>
       </c>
       <c r="E9" t="n">
-        <v>9.539999999999999</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>242.7</v>
+        <v>207.66</v>
       </c>
       <c r="D10" t="n">
-        <v>300.26</v>
+        <v>281.94</v>
       </c>
       <c r="E10" t="n">
-        <v>11.264</v>
+        <v>13.456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>293.96</v>
+        <v>277.38</v>
       </c>
       <c r="D11" t="n">
-        <v>332.3</v>
+        <v>316.54</v>
       </c>
       <c r="E11" t="n">
-        <v>10.52</v>
+        <v>12.936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>297.9</v>
+        <v>281.94</v>
       </c>
       <c r="D12" t="n">
-        <v>357.18</v>
+        <v>336.36</v>
       </c>
       <c r="E12" t="n">
-        <v>11.032</v>
+        <v>11.124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>346.2</v>
+        <v>270.9</v>
       </c>
       <c r="D13" t="n">
-        <v>384.1</v>
+        <v>326.7</v>
       </c>
       <c r="E13" t="n">
-        <v>8.48</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>300.26</v>
+        <v>335.52</v>
       </c>
       <c r="D14" t="n">
-        <v>344.68</v>
+        <v>394.82</v>
       </c>
       <c r="E14" t="n">
-        <v>8.932</v>
+        <v>7.908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>344.68</v>
+        <v>316.54</v>
       </c>
       <c r="D15" t="n">
-        <v>387.5</v>
+        <v>351.16</v>
       </c>
       <c r="E15" t="n">
-        <v>6.28</v>
+        <v>10.604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>387.5</v>
+        <v>351.16</v>
       </c>
       <c r="D16" t="n">
-        <v>436.2</v>
+        <v>400.34</v>
       </c>
       <c r="E16" t="n">
-        <v>3.04</v>
+        <v>7.796</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>229.9</v>
+        <v>336.36</v>
       </c>
       <c r="D17" t="n">
-        <v>277.1</v>
+        <v>369.26</v>
       </c>
       <c r="E17" t="n">
-        <v>13.4</v>
+        <v>8.964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>357.18</v>
+        <v>355.64</v>
       </c>
       <c r="D18" t="n">
-        <v>446.18</v>
+        <v>402.08</v>
       </c>
       <c r="E18" t="n">
-        <v>7.732</v>
+        <v>5.692</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>384.1</v>
+        <v>394.82</v>
       </c>
       <c r="D19" t="n">
-        <v>428.38</v>
+        <v>448.26</v>
       </c>
       <c r="E19" t="n">
-        <v>5.672</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>347.4</v>
+        <v>369.34</v>
       </c>
       <c r="D20" t="n">
-        <v>415.52</v>
+        <v>411.94</v>
       </c>
       <c r="E20" t="n">
-        <v>6.348</v>
+        <v>7.296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>332.3</v>
+        <v>448.26</v>
       </c>
       <c r="D21" t="n">
-        <v>415.3</v>
+        <v>485.46</v>
       </c>
       <c r="E21" t="n">
-        <v>7.8</v>
+        <v>3.124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>415.52</v>
+        <v>369.26</v>
       </c>
       <c r="D22" t="n">
-        <v>477.16</v>
+        <v>426.78</v>
       </c>
       <c r="E22" t="n">
-        <v>3.324</v>
+        <v>6.312</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>277.1</v>
+        <v>400.34</v>
       </c>
       <c r="D23" t="n">
-        <v>357.5</v>
+        <v>439.1</v>
       </c>
       <c r="E23" t="n">
-        <v>8.48</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>428.38</v>
+        <v>326.7</v>
       </c>
       <c r="D24" t="n">
-        <v>468</v>
+        <v>369.92</v>
       </c>
       <c r="E24" t="n">
-        <v>3.34</v>
+        <v>6.288</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>357.5</v>
+        <v>426.78</v>
       </c>
       <c r="D25" t="n">
-        <v>404.3</v>
+        <v>475.48</v>
       </c>
       <c r="E25" t="n">
-        <v>6.4</v>
+        <v>3.072</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>415.3</v>
+        <v>402.08</v>
       </c>
       <c r="D26" t="n">
-        <v>493.86</v>
+        <v>457.94</v>
       </c>
       <c r="E26" t="n">
-        <v>5.044</v>
+        <v>3.196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>404.3</v>
+        <v>411.94</v>
       </c>
       <c r="D27" t="n">
-        <v>453.6</v>
+        <v>472</v>
       </c>
       <c r="E27" t="n">
-        <v>3.1</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>446.18</v>
+        <v>369.92</v>
       </c>
       <c r="D28" t="n">
-        <v>506.94</v>
+        <v>408.78</v>
       </c>
       <c r="E28" t="n">
-        <v>5.236</v>
+        <v>3.532</v>
       </c>
     </row>
   </sheetData>
